--- a/Code/Results/Cases/Case_2_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_107/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.3389717997898</v>
+        <v>11.6312914161566</v>
       </c>
       <c r="C2">
-        <v>6.409258860967261</v>
+        <v>8.015445958818585</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.490124371995724</v>
+        <v>12.25441670958022</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.10955775848495</v>
+        <v>3.662559065045042</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.40360836283854</v>
+        <v>25.03053132189126</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.25389735994719</v>
+        <v>9.029295991837998</v>
       </c>
       <c r="L2">
-        <v>6.346925827450243</v>
+        <v>10.15121155305382</v>
       </c>
       <c r="M2">
-        <v>9.498871264980878</v>
+        <v>13.93153174997595</v>
       </c>
       <c r="N2">
-        <v>13.19050128640761</v>
+        <v>20.1223370094384</v>
       </c>
       <c r="O2">
-        <v>15.5624439058753</v>
+        <v>24.96835095978425</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.51349312094724</v>
+        <v>11.42600299865751</v>
       </c>
       <c r="C3">
-        <v>6.316157823577051</v>
+        <v>7.990342930504857</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.480042424735353</v>
+        <v>12.2792371126617</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.113484055754701</v>
+        <v>3.664058736067018</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.5947589600148</v>
+        <v>25.12550251550319</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.669485360297804</v>
+        <v>8.884426446292636</v>
       </c>
       <c r="L3">
-        <v>6.266187693820243</v>
+        <v>10.15873447998605</v>
       </c>
       <c r="M3">
-        <v>9.199766770617003</v>
+        <v>13.90287015752963</v>
       </c>
       <c r="N3">
-        <v>13.3701217435401</v>
+        <v>20.17880671878433</v>
       </c>
       <c r="O3">
-        <v>15.69407534136031</v>
+        <v>25.05905202467667</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.0241270648057</v>
+        <v>11.29995938865098</v>
       </c>
       <c r="C4">
-        <v>6.258317083503612</v>
+        <v>7.974746885694811</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.47729187875782</v>
+        <v>12.29609681548011</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.1159738186345</v>
+        <v>3.665028865048658</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.72095546316032</v>
+        <v>25.1877164681142</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.291680561650326</v>
+        <v>8.795551901708979</v>
       </c>
       <c r="L4">
-        <v>6.218812112188745</v>
+        <v>10.16470999796072</v>
       </c>
       <c r="M4">
-        <v>9.014373412040113</v>
+        <v>13.88711623537405</v>
       </c>
       <c r="N4">
-        <v>13.4832786729006</v>
+        <v>20.21517809924031</v>
       </c>
       <c r="O4">
-        <v>15.78556910236387</v>
+        <v>25.11906344312224</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.81883427106607</v>
+        <v>11.24866381075409</v>
       </c>
       <c r="C5">
-        <v>6.234587092462559</v>
+        <v>7.968346790914143</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.477022061984297</v>
+        <v>12.3033749628227</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.117008630535212</v>
+        <v>3.665436640690587</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.77453766046274</v>
+        <v>25.21405075309706</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.1329976922051</v>
+        <v>8.759397843310014</v>
       </c>
       <c r="L5">
-        <v>6.200070685565084</v>
+        <v>10.16748677419599</v>
       </c>
       <c r="M5">
-        <v>8.938497864257211</v>
+        <v>13.88116492207993</v>
       </c>
       <c r="N5">
-        <v>13.53012648653718</v>
+        <v>20.23042807392745</v>
       </c>
       <c r="O5">
-        <v>15.82543932437106</v>
+        <v>25.14460470130836</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.78439434918927</v>
+        <v>11.24015231938786</v>
       </c>
       <c r="C6">
-        <v>6.230637437194667</v>
+        <v>7.967281406971008</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.477028241552115</v>
+        <v>12.30460812648951</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.117181691046091</v>
+        <v>3.665505103973679</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.78356338130513</v>
+        <v>25.21848284481609</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.106364835077184</v>
+        <v>8.75339958889375</v>
       </c>
       <c r="L6">
-        <v>6.19699310111482</v>
+        <v>10.16796851078672</v>
       </c>
       <c r="M6">
-        <v>8.925882497233687</v>
+        <v>13.88020514213158</v>
       </c>
       <c r="N6">
-        <v>13.5379503495849</v>
+        <v>20.23298622608302</v>
       </c>
       <c r="O6">
-        <v>15.83221314767206</v>
+        <v>25.14891139715697</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.02138203906185</v>
+        <v>11.29926723294973</v>
       </c>
       <c r="C7">
-        <v>6.257997683625153</v>
+        <v>7.974660750492256</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.477284812864313</v>
+        <v>12.2961933199761</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.115987692174293</v>
+        <v>3.665034314033839</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.72166944270271</v>
+        <v>25.1880676462482</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.289559565489387</v>
+        <v>8.795064001834499</v>
       </c>
       <c r="L7">
-        <v>6.218557058396809</v>
+        <v>10.16474606221058</v>
       </c>
       <c r="M7">
-        <v>9.013351295538552</v>
+        <v>13.88703407075094</v>
       </c>
       <c r="N7">
-        <v>13.48390748292747</v>
+        <v>20.21538202982717</v>
       </c>
       <c r="O7">
-        <v>15.78609646221787</v>
+        <v>25.11940350424281</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.05920646642745</v>
+        <v>11.56054702365648</v>
       </c>
       <c r="C8">
-        <v>6.377304215502491</v>
+        <v>8.006829164592451</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.485926004232472</v>
+        <v>12.26263879612153</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.110895363003471</v>
+        <v>3.663065936572361</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.46764455619874</v>
+        <v>25.06246803816506</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.05635372951523</v>
+        <v>8.979355426886562</v>
       </c>
       <c r="L8">
-        <v>6.318638579308384</v>
+        <v>10.15352432763163</v>
       </c>
       <c r="M8">
-        <v>9.396166231723541</v>
+        <v>13.9212693613469</v>
       </c>
       <c r="N8">
-        <v>13.25184746351343</v>
+        <v>20.14145590059941</v>
       </c>
       <c r="O8">
-        <v>15.6055554255135</v>
+        <v>24.99872774912244</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.96143056058011</v>
+        <v>12.07006310102962</v>
       </c>
       <c r="C9">
-        <v>6.605463706662407</v>
+        <v>8.068403370964058</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.53075705870829</v>
+        <v>12.20967556638052</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.101519667275573</v>
+        <v>3.659595632788434</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.04268486680068</v>
+        <v>24.84709542968811</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.40811578676186</v>
+        <v>9.339452111720542</v>
       </c>
       <c r="L9">
-        <v>6.531769132843444</v>
+        <v>10.14225182333835</v>
       </c>
       <c r="M9">
-        <v>10.12854838222905</v>
+        <v>14.00281889802661</v>
       </c>
       <c r="N9">
-        <v>12.81888481752042</v>
+        <v>20.00991138862782</v>
       </c>
       <c r="O9">
-        <v>15.34079137090179</v>
+        <v>24.79637961075894</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.21426130578564</v>
+        <v>12.43892074167141</v>
       </c>
       <c r="C10">
-        <v>6.769032752036774</v>
+        <v>8.112646062053379</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.581460942766164</v>
+        <v>12.17856718984426</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.094979328412391</v>
+        <v>3.65728118739446</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.77979325185792</v>
+        <v>24.70767822386784</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.30758849313921</v>
+        <v>9.600741110532459</v>
       </c>
       <c r="L10">
-        <v>6.697830294164876</v>
+        <v>10.14047121232617</v>
       </c>
       <c r="M10">
-        <v>10.65007112581386</v>
+        <v>14.07120837622394</v>
       </c>
       <c r="N10">
-        <v>12.51330315580355</v>
+        <v>19.92137233539386</v>
       </c>
       <c r="O10">
-        <v>15.20735012409576</v>
+        <v>24.66864234003482</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.75333283530069</v>
+        <v>12.60478424717608</v>
       </c>
       <c r="C11">
-        <v>6.842468887411868</v>
+        <v>8.132540563791201</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.608535004856049</v>
+        <v>12.16610454617019</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.092073942048941</v>
+        <v>3.656278850777209</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.67206111881449</v>
+        <v>24.64833229645113</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.69639796778181</v>
+        <v>9.7183956086204</v>
       </c>
       <c r="L11">
-        <v>6.77525133116213</v>
+        <v>10.14106248749925</v>
       </c>
       <c r="M11">
-        <v>10.88277239875842</v>
+        <v>14.10408822999062</v>
       </c>
       <c r="N11">
-        <v>12.37678438326427</v>
+        <v>19.88283750719711</v>
       </c>
       <c r="O11">
-        <v>15.16144018004445</v>
+        <v>24.61508015332619</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.95307450761008</v>
+        <v>12.66725587750028</v>
       </c>
       <c r="C12">
-        <v>6.870130612176539</v>
+        <v>8.140039312656334</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.619374781918661</v>
+        <v>12.16162763851729</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.090983312436021</v>
+        <v>3.655906518123708</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.63307698532688</v>
+        <v>24.62644519300849</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.84070561374608</v>
+        <v>9.762734915301897</v>
       </c>
       <c r="L12">
-        <v>6.804823323690077</v>
+        <v>10.14148686827105</v>
       </c>
       <c r="M12">
-        <v>10.97016944718427</v>
+        <v>14.1167867495</v>
       </c>
       <c r="N12">
-        <v>12.32542813269101</v>
+        <v>19.8684946641152</v>
       </c>
       <c r="O12">
-        <v>15.14631568321507</v>
+        <v>24.59545175575104</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.91025125453432</v>
+        <v>12.6538174097998</v>
       </c>
       <c r="C13">
-        <v>6.864179802726864</v>
+        <v>8.138425898332914</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.61701394884005</v>
+        <v>12.16258104559555</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.09121778079204</v>
+        <v>3.655986385578444</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.64139055646315</v>
+        <v>24.63113291606007</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.80975641996029</v>
+        <v>9.753195788169807</v>
       </c>
       <c r="L13">
-        <v>6.798443404444397</v>
+        <v>10.14138657114834</v>
       </c>
       <c r="M13">
-        <v>10.9513800352024</v>
+        <v>14.1140409931882</v>
       </c>
       <c r="N13">
-        <v>12.33647377149329</v>
+        <v>19.8715725736598</v>
       </c>
       <c r="O13">
-        <v>15.14947029832458</v>
+        <v>24.59964996460417</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.76985349733014</v>
+        <v>12.60993091540746</v>
       </c>
       <c r="C14">
-        <v>6.844747616328907</v>
+        <v>8.133158198042958</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.609414966646844</v>
+        <v>12.16573137217274</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.091984026116501</v>
+        <v>3.656248074027932</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.66881692231133</v>
+        <v>24.64651988957015</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.70832885363776</v>
+        <v>9.722047941419319</v>
       </c>
       <c r="L14">
-        <v>6.777679229640814</v>
+        <v>10.14109338984264</v>
       </c>
       <c r="M14">
-        <v>10.88997743626249</v>
+        <v>14.10512802162114</v>
       </c>
       <c r="N14">
-        <v>12.37255255567633</v>
+        <v>19.88165251923902</v>
       </c>
       <c r="O14">
-        <v>15.16014979162379</v>
+        <v>24.61345219320325</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.68328500131555</v>
+        <v>12.58300353243268</v>
       </c>
       <c r="C15">
-        <v>6.832825510332592</v>
+        <v>8.129926992779005</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.604837183954468</v>
+        <v>12.16769259641426</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.09245460645164</v>
+        <v>3.656409306385429</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.68585560013894</v>
+        <v>24.65602115375571</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.64582064833447</v>
+        <v>9.702939964231112</v>
       </c>
       <c r="L15">
-        <v>6.764993227257143</v>
+        <v>10.14093988416358</v>
       </c>
       <c r="M15">
-        <v>10.85227067319683</v>
+        <v>14.09970061282218</v>
       </c>
       <c r="N15">
-        <v>12.39469564539068</v>
+        <v>19.88785923330357</v>
       </c>
       <c r="O15">
-        <v>15.16698972783132</v>
+        <v>24.62199170534107</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.17841462483825</v>
+        <v>12.42803714559413</v>
       </c>
       <c r="C16">
-        <v>6.764213330054964</v>
+        <v>8.111341114767859</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.579773207388837</v>
+        <v>12.17941559975139</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.095170568405477</v>
+        <v>3.65734770607766</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.78708133457074</v>
+        <v>24.71163861778836</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.28176915702861</v>
+        <v>9.593024334939432</v>
       </c>
       <c r="L16">
-        <v>6.692807095577177</v>
+        <v>10.1404606826875</v>
       </c>
       <c r="M16">
-        <v>10.63476607480551</v>
+        <v>14.06909462770226</v>
       </c>
       <c r="N16">
-        <v>12.52227360970611</v>
+        <v>19.9239256418195</v>
       </c>
       <c r="O16">
-        <v>15.21065941189886</v>
+        <v>24.67223429549637</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.86082243480006</v>
+        <v>12.33243224790733</v>
       </c>
       <c r="C17">
-        <v>6.721867561399658</v>
+        <v>8.099878833695833</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.565432006934368</v>
+        <v>12.18703951980774</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.096854288166002</v>
+        <v>3.657936298233843</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.85229043443542</v>
+        <v>24.74680187839797</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.05321923400882</v>
+        <v>9.525256234714998</v>
       </c>
       <c r="L17">
-        <v>6.6489931419674</v>
+        <v>10.14052490621377</v>
       </c>
       <c r="M17">
-        <v>10.50011899459592</v>
+        <v>14.05076723710988</v>
       </c>
       <c r="N17">
-        <v>12.60116429474235</v>
+        <v>19.94649664603662</v>
       </c>
       <c r="O17">
-        <v>15.24133156250861</v>
+        <v>24.70422137662845</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.6752456908815</v>
+        <v>12.27726439427942</v>
       </c>
       <c r="C18">
-        <v>6.697420247997268</v>
+        <v>8.093264315157024</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.557560025530401</v>
+        <v>12.19158357291822</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.097829322903827</v>
+        <v>3.658279597694512</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.8909063024435</v>
+        <v>24.76741048397085</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.91984595721501</v>
+        <v>9.486166494193386</v>
       </c>
       <c r="L18">
-        <v>6.623970318901337</v>
+        <v>10.14069380771897</v>
       </c>
       <c r="M18">
-        <v>10.42224957414153</v>
+        <v>14.04039274887946</v>
       </c>
       <c r="N18">
-        <v>12.64677578970059</v>
+        <v>19.95964292041378</v>
       </c>
       <c r="O18">
-        <v>15.26035748140895</v>
+        <v>24.72304736087272</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.61191217466706</v>
+        <v>12.25855672114476</v>
       </c>
       <c r="C19">
-        <v>6.689127387430953</v>
+        <v>8.091021069795913</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.554959060017395</v>
+        <v>12.19314942751505</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.098160600916891</v>
+        <v>3.658396651012558</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.90416839020764</v>
+        <v>24.7744540977053</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.87435876143298</v>
+        <v>9.472913517084677</v>
       </c>
       <c r="L19">
-        <v>6.61552904592239</v>
+        <v>10.1407736893794</v>
       </c>
       <c r="M19">
-        <v>10.39581374708128</v>
+        <v>14.03690899964139</v>
       </c>
       <c r="N19">
-        <v>12.66226006562965</v>
+        <v>19.96412222725071</v>
       </c>
       <c r="O19">
-        <v>15.26703306926284</v>
+        <v>24.72949497966387</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.89493112999702</v>
+        <v>12.34262846150124</v>
       </c>
       <c r="C20">
-        <v>6.726384829159739</v>
+        <v>8.101101271958811</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.566919583660285</v>
+        <v>12.18621148997424</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.096674373170875</v>
+        <v>3.657873149525975</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.84523325960938</v>
+        <v>24.7430189864875</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.07774720809507</v>
+        <v>9.532482083645959</v>
       </c>
       <c r="L20">
-        <v>6.653638925771865</v>
+        <v>10.1405044191339</v>
       </c>
       <c r="M20">
-        <v>10.51449681262643</v>
+        <v>14.05270098941026</v>
       </c>
       <c r="N20">
-        <v>12.59274198393893</v>
+        <v>19.94407695522642</v>
       </c>
       <c r="O20">
-        <v>15.23792225915125</v>
+        <v>24.70077201006694</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.8112106017931</v>
+        <v>12.6228310554432</v>
       </c>
       <c r="C21">
-        <v>6.850459360272684</v>
+        <v>8.134706407949029</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.61163094545307</v>
+        <v>12.1647994689539</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.091758705214099</v>
+        <v>3.656171013821404</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.66071107535268</v>
+        <v>24.64198446215046</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.73819995405272</v>
+        <v>9.731202936536201</v>
       </c>
       <c r="L21">
-        <v>6.783771393896804</v>
+        <v>10.14117407195535</v>
       </c>
       <c r="M21">
-        <v>10.90803296342576</v>
+        <v>14.10773931200623</v>
       </c>
       <c r="N21">
-        <v>12.36194624883598</v>
+        <v>19.87868503285058</v>
       </c>
       <c r="O21">
-        <v>15.15695052660306</v>
+        <v>24.60938037709015</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.38446682224019</v>
+        <v>12.80396830160978</v>
       </c>
       <c r="C22">
-        <v>6.930690175652651</v>
+        <v>8.15646535285253</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.644280941191865</v>
+        <v>12.15221830365885</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.088601620013196</v>
+        <v>3.65510069902601</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.55073049016386</v>
+        <v>24.57936764529455</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.15279357704089</v>
+        <v>9.859814329611732</v>
       </c>
       <c r="L22">
-        <v>6.870295779636423</v>
+        <v>10.14277973465846</v>
       </c>
       <c r="M22">
-        <v>11.16099824552369</v>
+        <v>14.14515010463411</v>
       </c>
       <c r="N22">
-        <v>12.21308343039351</v>
+        <v>19.83740120052517</v>
       </c>
       <c r="O22">
-        <v>15.11727258513307</v>
+        <v>24.55346557201587</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.08083588766833</v>
+        <v>12.7074930183106</v>
       </c>
       <c r="C23">
-        <v>6.887950166397007</v>
+        <v>8.144871368660359</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.626537859623799</v>
+        <v>12.15880397724508</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.090281690349157</v>
+        <v>3.655668102400526</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.60842053499652</v>
+        <v>24.61247498437803</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.93307506234623</v>
+        <v>9.791300528717874</v>
       </c>
       <c r="L23">
-        <v>6.823986256714402</v>
+        <v>10.14181624881297</v>
       </c>
       <c r="M23">
-        <v>11.02639370387165</v>
+        <v>14.12505379825324</v>
       </c>
       <c r="N23">
-        <v>12.29235966176247</v>
+        <v>19.8593024982429</v>
       </c>
       <c r="O23">
-        <v>15.13719252506727</v>
+        <v>24.58295905532859</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.87951990145943</v>
+        <v>12.33801938208206</v>
       </c>
       <c r="C24">
-        <v>6.724342890077704</v>
+        <v>8.100548684451773</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.566245889356995</v>
+        <v>12.18658534086707</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.09675569077144</v>
+        <v>3.65790168376034</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.84842030816637</v>
+        <v>24.74472800842973</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.06666426867716</v>
+        <v>9.529215675925252</v>
       </c>
       <c r="L24">
-        <v>6.651538047398767</v>
+        <v>10.14051327017091</v>
       </c>
       <c r="M24">
-        <v>10.50799802552735</v>
+        <v>14.05182623433508</v>
       </c>
       <c r="N24">
-        <v>12.59654891133736</v>
+        <v>19.94517036812097</v>
       </c>
       <c r="O24">
-        <v>15.23945927918947</v>
+        <v>24.70233011005538</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.47243006731172</v>
+        <v>11.93292576291023</v>
       </c>
       <c r="C25">
-        <v>6.544418384297201</v>
+        <v>8.051915212651375</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.515561804388531</v>
+        <v>12.22263141325678</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.103993121544325</v>
+        <v>3.66049297040134</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.14935108319477</v>
+        <v>24.90205237216912</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.05883677106226</v>
+        <v>9.242436167088718</v>
       </c>
       <c r="L25">
-        <v>6.472386774389411</v>
+        <v>10.14415630281993</v>
       </c>
       <c r="M25">
-        <v>9.932971980180689</v>
+        <v>13.97924547092837</v>
       </c>
       <c r="N25">
-        <v>12.93374309103088</v>
+        <v>20.04406851219702</v>
       </c>
       <c r="O25">
-        <v>15.40219154952657</v>
+        <v>24.84744644792568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_107/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.6312914161566</v>
+        <v>12.33897179978987</v>
       </c>
       <c r="C2">
-        <v>8.015445958818585</v>
+        <v>6.409258860966858</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.25441670958022</v>
+        <v>7.490124371995736</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.662559065045042</v>
+        <v>2.109557758484816</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.03053132189126</v>
+        <v>15.40360836283822</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.029295991837998</v>
+        <v>10.25389735994721</v>
       </c>
       <c r="L2">
-        <v>10.15121155305382</v>
+        <v>6.346925827450342</v>
       </c>
       <c r="M2">
-        <v>13.93153174997595</v>
+        <v>9.498871264980869</v>
       </c>
       <c r="N2">
-        <v>20.1223370094384</v>
+        <v>13.19050128640744</v>
       </c>
       <c r="O2">
-        <v>24.96835095978425</v>
+        <v>15.56244390587508</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.42600299865751</v>
+        <v>11.51349312094724</v>
       </c>
       <c r="C3">
-        <v>7.990342930504857</v>
+        <v>6.316157823577161</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.2792371126617</v>
+        <v>7.480042424735355</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.664058736067018</v>
+        <v>2.113484055754702</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.12550251550319</v>
+        <v>15.59475896001488</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.884426446292636</v>
+        <v>9.669485360297877</v>
       </c>
       <c r="L3">
-        <v>10.15873447998605</v>
+        <v>6.266187693820186</v>
       </c>
       <c r="M3">
-        <v>13.90287015752963</v>
+        <v>9.199766770616966</v>
       </c>
       <c r="N3">
-        <v>20.17880671878433</v>
+        <v>13.3701217435402</v>
       </c>
       <c r="O3">
-        <v>25.05905202467667</v>
+        <v>15.69407534136039</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.29995938865098</v>
+        <v>11.02412706480571</v>
       </c>
       <c r="C4">
-        <v>7.974746885694811</v>
+        <v>6.258317083503736</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.29609681548011</v>
+        <v>7.477291878757879</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.665028865048658</v>
+        <v>2.115973818634632</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.1877164681142</v>
+        <v>15.72095546316038</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.795551901708979</v>
+        <v>9.291680561650361</v>
       </c>
       <c r="L4">
-        <v>10.16470999796072</v>
+        <v>6.218812112188745</v>
       </c>
       <c r="M4">
-        <v>13.88711623537405</v>
+        <v>9.014373412040115</v>
       </c>
       <c r="N4">
-        <v>20.21517809924031</v>
+        <v>13.48327867290064</v>
       </c>
       <c r="O4">
-        <v>25.11906344312224</v>
+        <v>15.78556910236387</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.24866381075409</v>
+        <v>10.81883427106607</v>
       </c>
       <c r="C5">
-        <v>7.968346790914143</v>
+        <v>6.234587092462553</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.3033749628227</v>
+        <v>7.47702206198429</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.665436640690587</v>
+        <v>2.117008630535346</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.21405075309706</v>
+        <v>15.77453766046275</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.759397843310014</v>
+        <v>9.132997692205146</v>
       </c>
       <c r="L5">
-        <v>10.16748677419599</v>
+        <v>6.20007068556508</v>
       </c>
       <c r="M5">
-        <v>13.88116492207993</v>
+        <v>8.938497864257167</v>
       </c>
       <c r="N5">
-        <v>20.23042807392745</v>
+        <v>13.53012648653725</v>
       </c>
       <c r="O5">
-        <v>25.14460470130836</v>
+        <v>15.82543932437107</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.24015231938786</v>
+        <v>10.78439434918927</v>
       </c>
       <c r="C6">
-        <v>7.967281406971008</v>
+        <v>6.23063743719479</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.30460812648951</v>
+        <v>7.477028241552115</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.665505103973679</v>
+        <v>2.117181691045956</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.21848284481609</v>
+        <v>15.78356338130514</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.75339958889375</v>
+        <v>9.10636483507718</v>
       </c>
       <c r="L6">
-        <v>10.16796851078672</v>
+        <v>6.196993101114792</v>
       </c>
       <c r="M6">
-        <v>13.88020514213158</v>
+        <v>8.92588249723369</v>
       </c>
       <c r="N6">
-        <v>20.23298622608302</v>
+        <v>13.53795034958487</v>
       </c>
       <c r="O6">
-        <v>25.14891139715697</v>
+        <v>15.83221314767201</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.29926723294973</v>
+        <v>11.02138203906186</v>
       </c>
       <c r="C7">
-        <v>7.974660750492256</v>
+        <v>6.257997683625399</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.2961933199761</v>
+        <v>7.477284812864425</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.665034314033839</v>
+        <v>2.115987692174425</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.1880676462482</v>
+        <v>15.72166944270282</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.795064001834499</v>
+        <v>9.289559565489384</v>
       </c>
       <c r="L7">
-        <v>10.16474606221058</v>
+        <v>6.218557058396752</v>
       </c>
       <c r="M7">
-        <v>13.88703407075094</v>
+        <v>9.013351295538587</v>
       </c>
       <c r="N7">
-        <v>20.21538202982717</v>
+        <v>13.4839074829275</v>
       </c>
       <c r="O7">
-        <v>25.11940350424281</v>
+        <v>15.78609646221792</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.56054702365648</v>
+        <v>12.05920646642749</v>
       </c>
       <c r="C8">
-        <v>8.006829164592451</v>
+        <v>6.377304215502473</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.26263879612153</v>
+        <v>7.485926004232534</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.663065936572361</v>
+        <v>2.110895363003337</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.06246803816506</v>
+        <v>15.46764455619876</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.979355426886562</v>
+        <v>10.05635372951527</v>
       </c>
       <c r="L8">
-        <v>10.15352432763163</v>
+        <v>6.318638579308431</v>
       </c>
       <c r="M8">
-        <v>13.9212693613469</v>
+        <v>9.396166231723548</v>
       </c>
       <c r="N8">
-        <v>20.14145590059941</v>
+        <v>13.25184746351343</v>
       </c>
       <c r="O8">
-        <v>24.99872774912244</v>
+        <v>15.60555542551345</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.07006310102962</v>
+        <v>13.96143056058023</v>
       </c>
       <c r="C9">
-        <v>8.068403370964058</v>
+        <v>6.605463706662272</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.20967556638052</v>
+        <v>7.530757058708295</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.659595632788434</v>
+        <v>2.101519667275439</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.84709542968811</v>
+        <v>15.04268486680044</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.339452111720542</v>
+        <v>11.40811578676189</v>
       </c>
       <c r="L9">
-        <v>10.14225182333835</v>
+        <v>6.531769132843491</v>
       </c>
       <c r="M9">
-        <v>14.00281889802661</v>
+        <v>10.12854838222903</v>
       </c>
       <c r="N9">
-        <v>20.00991138862782</v>
+        <v>12.81888481752028</v>
       </c>
       <c r="O9">
-        <v>24.79637961075894</v>
+        <v>15.34079137090163</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.43892074167141</v>
+        <v>15.21426130578565</v>
       </c>
       <c r="C10">
-        <v>8.112646062053379</v>
+        <v>6.769032752036995</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.17856718984426</v>
+        <v>7.581460942766323</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.65728118739446</v>
+        <v>2.09497932841239</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.70767822386784</v>
+        <v>14.7797932518579</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.600741110532459</v>
+        <v>12.30758849313923</v>
       </c>
       <c r="L10">
-        <v>10.14047121232617</v>
+        <v>6.697830294164961</v>
       </c>
       <c r="M10">
-        <v>14.07120837622394</v>
+        <v>10.65007112581387</v>
       </c>
       <c r="N10">
-        <v>19.92137233539386</v>
+        <v>12.51330315580351</v>
       </c>
       <c r="O10">
-        <v>24.66864234003482</v>
+        <v>15.20735012409567</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.60478424717608</v>
+        <v>15.75333283530073</v>
       </c>
       <c r="C11">
-        <v>8.132540563791201</v>
+        <v>6.842468887411743</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.16610454617019</v>
+        <v>7.608535004856049</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.656278850777209</v>
+        <v>2.09207394204894</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.64833229645113</v>
+        <v>14.67206111881448</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.7183956086204</v>
+        <v>12.69639796778183</v>
       </c>
       <c r="L11">
-        <v>10.14106248749925</v>
+        <v>6.775251331162178</v>
       </c>
       <c r="M11">
-        <v>14.10408822999062</v>
+        <v>10.88277239875841</v>
       </c>
       <c r="N11">
-        <v>19.88283750719711</v>
+        <v>12.37678438326427</v>
       </c>
       <c r="O11">
-        <v>24.61508015332619</v>
+        <v>15.16144018004445</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.66725587750028</v>
+        <v>15.95307450761014</v>
       </c>
       <c r="C12">
-        <v>8.140039312656334</v>
+        <v>6.870130612176766</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.16162763851729</v>
+        <v>7.619374781918714</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.655906518123708</v>
+        <v>2.09098331243602</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.62644519300849</v>
+        <v>14.63307698532675</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.762734915301897</v>
+        <v>12.84070561374614</v>
       </c>
       <c r="L12">
-        <v>10.14148686827105</v>
+        <v>6.804823323690077</v>
       </c>
       <c r="M12">
-        <v>14.1167867495</v>
+        <v>10.97016944718427</v>
       </c>
       <c r="N12">
-        <v>19.8684946641152</v>
+        <v>12.32542813269094</v>
       </c>
       <c r="O12">
-        <v>24.59545175575104</v>
+        <v>15.14631568321494</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.6538174097998</v>
+        <v>15.91025125453431</v>
       </c>
       <c r="C13">
-        <v>8.138425898332914</v>
+        <v>6.86417980272698</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.16258104559555</v>
+        <v>7.617013948839961</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.655986385578444</v>
+        <v>2.091217780792038</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.63113291606007</v>
+        <v>14.64139055646325</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.753195788169807</v>
+        <v>12.80975641996028</v>
       </c>
       <c r="L13">
-        <v>10.14138657114834</v>
+        <v>6.798443404444339</v>
       </c>
       <c r="M13">
-        <v>14.1140409931882</v>
+        <v>10.9513800352024</v>
       </c>
       <c r="N13">
-        <v>19.8715725736598</v>
+        <v>12.33647377149332</v>
       </c>
       <c r="O13">
-        <v>24.59964996460417</v>
+        <v>15.14947029832467</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.60993091540746</v>
+        <v>15.76985349733018</v>
       </c>
       <c r="C14">
-        <v>8.133158198042958</v>
+        <v>6.844747616329032</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.16573137217274</v>
+        <v>7.609414966646833</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.656248074027932</v>
+        <v>2.091984026116369</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.64651988957015</v>
+        <v>14.66881692231119</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.722047941419319</v>
+        <v>12.70832885363782</v>
       </c>
       <c r="L14">
-        <v>10.14109338984264</v>
+        <v>6.777679229640808</v>
       </c>
       <c r="M14">
-        <v>14.10512802162114</v>
+        <v>10.88997743626246</v>
       </c>
       <c r="N14">
-        <v>19.88165251923902</v>
+        <v>12.3725525556763</v>
       </c>
       <c r="O14">
-        <v>24.61345219320325</v>
+        <v>15.16014979162365</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.58300353243268</v>
+        <v>15.68328500131556</v>
       </c>
       <c r="C15">
-        <v>8.129926992779005</v>
+        <v>6.832825510332576</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.16769259641426</v>
+        <v>7.604837183954515</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.656409306385429</v>
+        <v>2.09245460645164</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.65602115375571</v>
+        <v>14.68585560013896</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.702939964231112</v>
+        <v>12.64582064833447</v>
       </c>
       <c r="L15">
-        <v>10.14093988416358</v>
+        <v>6.76499322725716</v>
       </c>
       <c r="M15">
-        <v>14.09970061282218</v>
+        <v>10.85227067319684</v>
       </c>
       <c r="N15">
-        <v>19.88785923330357</v>
+        <v>12.39469564539068</v>
       </c>
       <c r="O15">
-        <v>24.62199170534107</v>
+        <v>15.16698972783134</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.42803714559413</v>
+        <v>15.17841462483818</v>
       </c>
       <c r="C16">
-        <v>8.111341114767859</v>
+        <v>6.764213330055191</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.17941559975139</v>
+        <v>7.579773207388897</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.65734770607766</v>
+        <v>2.095170568405612</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.71163861778836</v>
+        <v>14.78708133457086</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.593024334939432</v>
+        <v>12.28176915702856</v>
       </c>
       <c r="L16">
-        <v>10.1404606826875</v>
+        <v>6.69280709557717</v>
       </c>
       <c r="M16">
-        <v>14.06909462770226</v>
+        <v>10.63476607480554</v>
       </c>
       <c r="N16">
-        <v>19.9239256418195</v>
+        <v>12.52227360970614</v>
       </c>
       <c r="O16">
-        <v>24.67223429549637</v>
+        <v>15.21065941189894</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.33243224790733</v>
+        <v>14.86082243480008</v>
       </c>
       <c r="C17">
-        <v>8.099878833695833</v>
+        <v>6.72186756139988</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.18703951980774</v>
+        <v>7.565432006934471</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.657936298233843</v>
+        <v>2.096854288166004</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.74680187839797</v>
+        <v>14.85229043443545</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.525256234714998</v>
+        <v>12.05321923400884</v>
       </c>
       <c r="L17">
-        <v>10.14052490621377</v>
+        <v>6.648993141967424</v>
       </c>
       <c r="M17">
-        <v>14.05076723710988</v>
+        <v>10.50011899459594</v>
       </c>
       <c r="N17">
-        <v>19.94649664603662</v>
+        <v>12.60116429474239</v>
       </c>
       <c r="O17">
-        <v>24.70422137662845</v>
+        <v>15.24133156250861</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.27726439427942</v>
+        <v>14.67524569088157</v>
       </c>
       <c r="C18">
-        <v>8.093264315157024</v>
+        <v>6.697420247997238</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.19158357291822</v>
+        <v>7.557560025530359</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.658279597694512</v>
+        <v>2.097829322903962</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.76741048397085</v>
+        <v>14.89090630244336</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.486166494193386</v>
+        <v>11.91984595721502</v>
       </c>
       <c r="L18">
-        <v>10.14069380771897</v>
+        <v>6.623970318901382</v>
       </c>
       <c r="M18">
-        <v>14.04039274887946</v>
+        <v>10.4222495741415</v>
       </c>
       <c r="N18">
-        <v>19.95964292041378</v>
+        <v>12.64677578970049</v>
       </c>
       <c r="O18">
-        <v>24.72304736087272</v>
+        <v>15.26035748140887</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.25855672114476</v>
+        <v>14.61191217466703</v>
       </c>
       <c r="C19">
-        <v>8.091021069795913</v>
+        <v>6.689127387431315</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.19314942751505</v>
+        <v>7.554959060017404</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.658396651012558</v>
+        <v>2.098160600916756</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.7744540977053</v>
+        <v>14.90416839020759</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.472913517084677</v>
+        <v>11.87435876143301</v>
       </c>
       <c r="L19">
-        <v>10.1407736893794</v>
+        <v>6.615529045922333</v>
       </c>
       <c r="M19">
-        <v>14.03690899964139</v>
+        <v>10.39581374708128</v>
       </c>
       <c r="N19">
-        <v>19.96412222725071</v>
+        <v>12.66226006562955</v>
       </c>
       <c r="O19">
-        <v>24.72949497966387</v>
+        <v>15.26703306926272</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.34262846150124</v>
+        <v>14.89493112999707</v>
       </c>
       <c r="C20">
-        <v>8.101101271958811</v>
+        <v>6.726384829159487</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.18621148997424</v>
+        <v>7.566919583660243</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.657873149525975</v>
+        <v>2.096674373171008</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.7430189864875</v>
+        <v>14.84523325960942</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.532482083645959</v>
+        <v>12.07774720809507</v>
       </c>
       <c r="L20">
-        <v>10.1405044191339</v>
+        <v>6.653638925771851</v>
       </c>
       <c r="M20">
-        <v>14.05270098941026</v>
+        <v>10.51449681262641</v>
       </c>
       <c r="N20">
-        <v>19.94407695522642</v>
+        <v>12.592741983939</v>
       </c>
       <c r="O20">
-        <v>24.70077201006694</v>
+        <v>15.23792225915133</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.6228310554432</v>
+        <v>15.81121060179307</v>
       </c>
       <c r="C21">
-        <v>8.134706407949029</v>
+        <v>6.850459360272916</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.1647994689539</v>
+        <v>7.611630945453077</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.656171013821404</v>
+        <v>2.091758705214097</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.64198446215046</v>
+        <v>14.66071107535278</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.731202936536201</v>
+        <v>12.73819995405271</v>
       </c>
       <c r="L21">
-        <v>10.14117407195535</v>
+        <v>6.783771393896744</v>
       </c>
       <c r="M21">
-        <v>14.10773931200623</v>
+        <v>10.90803296342576</v>
       </c>
       <c r="N21">
-        <v>19.87868503285058</v>
+        <v>12.36194624883601</v>
       </c>
       <c r="O21">
-        <v>24.60938037709015</v>
+        <v>15.15695052660313</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.80396830160978</v>
+        <v>16.3844668222402</v>
       </c>
       <c r="C22">
-        <v>8.15646535285253</v>
+        <v>6.930690175652742</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.15221830365885</v>
+        <v>7.644280941191922</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.65510069902601</v>
+        <v>2.088601620013463</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.57936764529455</v>
+        <v>14.55073049016388</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.859814329611732</v>
+        <v>13.15279357704092</v>
       </c>
       <c r="L22">
-        <v>10.14277973465846</v>
+        <v>6.870295779636416</v>
       </c>
       <c r="M22">
-        <v>14.14515010463411</v>
+        <v>11.16099824552368</v>
       </c>
       <c r="N22">
-        <v>19.83740120052517</v>
+        <v>12.21308343039354</v>
       </c>
       <c r="O22">
-        <v>24.55346557201587</v>
+        <v>15.11727258513304</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.7074930183106</v>
+        <v>16.08083588766832</v>
       </c>
       <c r="C23">
-        <v>8.144871368660359</v>
+        <v>6.887950166396752</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.15880397724508</v>
+        <v>7.626537859623651</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.655668102400526</v>
+        <v>2.090281690349025</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.61247498437803</v>
+        <v>14.60842053499658</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.791300528717874</v>
+        <v>12.93307506234616</v>
       </c>
       <c r="L23">
-        <v>10.14181624881297</v>
+        <v>6.823986256714355</v>
       </c>
       <c r="M23">
-        <v>14.12505379825324</v>
+        <v>11.02639370387165</v>
       </c>
       <c r="N23">
-        <v>19.8593024982429</v>
+        <v>12.2923596617625</v>
       </c>
       <c r="O23">
-        <v>24.58295905532859</v>
+        <v>15.13719252506738</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.33801938208206</v>
+        <v>14.87951990145945</v>
       </c>
       <c r="C24">
-        <v>8.100548684451773</v>
+        <v>6.724342890077696</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.18658534086707</v>
+        <v>7.566245889356951</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.65790168376034</v>
+        <v>2.096755690771173</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.74472800842973</v>
+        <v>14.84842030816628</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.529215675925252</v>
+        <v>12.06666426867716</v>
       </c>
       <c r="L24">
-        <v>10.14051327017091</v>
+        <v>6.65153804739876</v>
       </c>
       <c r="M24">
-        <v>14.05182623433508</v>
+        <v>10.50799802552734</v>
       </c>
       <c r="N24">
-        <v>19.94517036812097</v>
+        <v>12.59654891133726</v>
       </c>
       <c r="O24">
-        <v>24.70233011005538</v>
+        <v>15.23945927918936</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.93292576291023</v>
+        <v>13.47243006731168</v>
       </c>
       <c r="C25">
-        <v>8.051915212651375</v>
+        <v>6.544418384297571</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.22263141325678</v>
+        <v>7.515561804388639</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.66049297040134</v>
+        <v>2.103993121544459</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.90205237216912</v>
+        <v>15.1493510831949</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.242436167088718</v>
+        <v>11.0588367710623</v>
       </c>
       <c r="L25">
-        <v>10.14415630281993</v>
+        <v>6.47238677438937</v>
       </c>
       <c r="M25">
-        <v>13.97924547092837</v>
+        <v>9.932971980180715</v>
       </c>
       <c r="N25">
-        <v>20.04406851219702</v>
+        <v>12.93374309103091</v>
       </c>
       <c r="O25">
-        <v>24.84744644792568</v>
+        <v>15.40219154952658</v>
       </c>
     </row>
   </sheetData>
